--- a/Auscorp/32714/struct2_NYI.xlsx
+++ b/Auscorp/32714/struct2_NYI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Auscorp\32714\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D981D91-6106-4953-8D63-1A676A036F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE459A2-49B4-4E1E-A8D3-F917429B38A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="1365" windowWidth="28890" windowHeight="19710" xr2:uid="{7EF5F546-A39A-4F2B-B469-662262E41205}"/>
+    <workbookView xWindow="8880" yWindow="1275" windowWidth="28890" windowHeight="19710" xr2:uid="{7EF5F546-A39A-4F2B-B469-662262E41205}"/>
   </bookViews>
   <sheets>
     <sheet name="struct2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="198">
   <si>
     <t>resource</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>Skybar Kitchen</t>
+  </si>
+  <si>
+    <t>External Wet Areas</t>
+  </si>
+  <si>
+    <t>folder-with-checklists</t>
   </si>
 </sst>
 </file>
@@ -1541,17 +1547,20 @@
   <dimension ref="A1:Q327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
@@ -1688,13 +1697,15 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
@@ -1766,13 +1777,15 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
@@ -1784,13 +1797,15 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
@@ -1850,8 +1865,11 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>52</v>
@@ -1872,129 +1890,281 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
-        <v>13</v>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>197</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="s">
-        <v>13</v>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>197</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="1" t="s">
-        <v>13</v>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>197</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="s">
-        <v>13</v>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>197</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="s">
-        <v>13</v>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>197</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="1" t="s">
-        <v>13</v>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>197</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="1" t="s">
-        <v>13</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>197</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
-        <v>13</v>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>197</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
-        <v>13</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>197</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="s">
-        <v>13</v>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>197</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="1" t="s">
-        <v>13</v>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>197</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="1" t="s">
-        <v>13</v>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>197</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F32" s="1" t="s">
-        <v>13</v>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>197</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>69</v>
@@ -2047,144 +2217,322 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F36" s="1" t="s">
-        <v>13</v>
+      <c r="A36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F38" s="1" t="s">
-        <v>13</v>
+      <c r="A38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F39" s="1" t="s">
-        <v>13</v>
+      <c r="A39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F40" s="1" t="s">
-        <v>13</v>
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>197</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F41" s="1" t="s">
-        <v>13</v>
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>197</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F42" s="1" t="s">
-        <v>13</v>
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>197</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F43" s="1" t="s">
-        <v>13</v>
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>197</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F44" s="1" t="s">
-        <v>13</v>
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>197</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F45" s="1" t="s">
-        <v>13</v>
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>197</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F46" s="1" t="s">
-        <v>13</v>
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>197</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F47" s="1" t="s">
-        <v>13</v>
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>197</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F48" s="1" t="s">
-        <v>13</v>
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>197</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F49" s="1" t="s">
-        <v>13</v>
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49" t="s">
+        <v>197</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F50" s="1" t="s">
-        <v>13</v>
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>197</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F51" s="1" t="s">
-        <v>13</v>
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>197</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F52" s="1" t="s">
-        <v>13</v>
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>197</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F53" s="1" t="s">
-        <v>13</v>
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53" t="s">
+        <v>197</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>88</v>
@@ -2222,184 +2570,437 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F56" s="1" t="s">
-        <v>13</v>
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56" t="s">
+        <v>197</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F57" s="1" t="s">
-        <v>13</v>
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>197</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F58" s="1" t="s">
-        <v>13</v>
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>197</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F59" s="1" t="s">
-        <v>13</v>
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>197</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F60" s="1" t="s">
-        <v>13</v>
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>197</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F61" s="1" t="s">
-        <v>13</v>
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>197</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F62" s="1" t="s">
-        <v>13</v>
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>197</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F63" s="1" t="s">
-        <v>13</v>
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>197</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F64" s="1" t="s">
-        <v>13</v>
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>197</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F65" s="1" t="s">
-        <v>13</v>
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>197</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F66" s="1" t="s">
-        <v>13</v>
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>197</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F67" s="1" t="s">
-        <v>13</v>
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>197</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F68" s="1" t="s">
-        <v>13</v>
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68" t="s">
+        <v>197</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F69" s="1" t="s">
-        <v>13</v>
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69" t="s">
+        <v>197</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F70" s="1" t="s">
-        <v>13</v>
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" t="s">
+        <v>197</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F71" s="1" t="s">
-        <v>13</v>
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71" t="s">
+        <v>197</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F72" s="1" t="s">
-        <v>13</v>
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>197</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F73" s="1" t="s">
-        <v>13</v>
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>197</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F74" s="1" t="s">
-        <v>13</v>
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>196</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" t="s">
+        <v>197</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F75" s="1" t="s">
-        <v>13</v>
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>197</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F76" s="1" t="s">
-        <v>13</v>
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>197</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F77" s="1" t="s">
-        <v>13</v>
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77" t="s">
+        <v>197</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F78" s="1" t="s">
-        <v>13</v>
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>197</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>111</v>
@@ -2436,185 +3037,438 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F81" s="1" t="s">
-        <v>13</v>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>197</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F82" s="1" t="s">
-        <v>13</v>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>197</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F83" s="1" t="s">
-        <v>13</v>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>197</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F84" s="1" t="s">
-        <v>13</v>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>197</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F85" s="1" t="s">
-        <v>13</v>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>197</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F86" s="1" t="s">
-        <v>13</v>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>197</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F87" s="1" t="s">
-        <v>13</v>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>197</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F88" s="1" t="s">
-        <v>13</v>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>197</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F89" s="1" t="s">
-        <v>13</v>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>196</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>197</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F90" s="1" t="s">
-        <v>13</v>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>197</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F91" s="1" t="s">
-        <v>13</v>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>197</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F92" s="1" t="s">
-        <v>13</v>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>197</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F93" s="1" t="s">
-        <v>13</v>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>196</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>197</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F94" s="1" t="s">
-        <v>13</v>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>197</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F95" s="1" t="s">
-        <v>13</v>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>197</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F96" s="1" t="s">
-        <v>13</v>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>196</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>197</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F97" s="1" t="s">
-        <v>13</v>
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>197</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F98" s="1" t="s">
-        <v>13</v>
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>197</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F99" s="1" t="s">
-        <v>13</v>
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>197</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F100" s="1" t="s">
-        <v>13</v>
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100" t="s">
+        <v>197</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F101" s="1" t="s">
-        <v>13</v>
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>197</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F102" s="1" t="s">
-        <v>13</v>
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>197</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F103" s="1" t="s">
-        <v>13</v>
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>197</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>134</v>
@@ -2652,152 +3506,361 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F106" s="1" t="s">
-        <v>13</v>
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" t="s">
+        <v>196</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>197</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F107" s="1" t="s">
-        <v>13</v>
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>197</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F108" s="1" t="s">
-        <v>13</v>
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>197</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F109" s="1" t="s">
-        <v>13</v>
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>197</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F110" s="1" t="s">
-        <v>13</v>
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>197</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F111" s="1" t="s">
-        <v>13</v>
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>196</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>197</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F112" s="1" t="s">
-        <v>13</v>
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" t="s">
+        <v>196</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>197</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F113" s="1" t="s">
-        <v>13</v>
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>197</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F114" s="1" t="s">
-        <v>13</v>
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>197</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F115" s="1" t="s">
-        <v>13</v>
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>196</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>197</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F116" s="1" t="s">
-        <v>13</v>
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>196</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>197</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F117" s="1" t="s">
-        <v>13</v>
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>197</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F118" s="1" t="s">
-        <v>13</v>
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>196</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>197</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F119" s="1" t="s">
-        <v>13</v>
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>196</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119" t="s">
+        <v>197</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F120" s="1" t="s">
-        <v>13</v>
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>197</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F121" s="1" t="s">
-        <v>13</v>
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121" t="s">
+        <v>197</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F122" s="1" t="s">
-        <v>13</v>
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>196</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122" t="s">
+        <v>197</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F123" s="1" t="s">
-        <v>13</v>
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" t="s">
+        <v>196</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123" t="s">
+        <v>197</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F124" s="1" t="s">
-        <v>13</v>
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124" t="s">
+        <v>197</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>153</v>
@@ -2835,152 +3898,361 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F127" s="1" t="s">
-        <v>13</v>
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127" t="s">
+        <v>197</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F128" s="1" t="s">
-        <v>13</v>
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128" t="s">
+        <v>197</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F129" s="1" t="s">
-        <v>13</v>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129" t="s">
+        <v>197</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F130" s="1" t="s">
-        <v>13</v>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>196</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130" t="s">
+        <v>197</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F131" s="1" t="s">
-        <v>13</v>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>196</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131" t="s">
+        <v>197</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F132" s="1" t="s">
-        <v>13</v>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>196</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>197</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F133" s="1" t="s">
-        <v>13</v>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>196</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133" t="s">
+        <v>197</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F134" s="1" t="s">
-        <v>13</v>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>196</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134" t="s">
+        <v>197</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F135" s="1" t="s">
-        <v>13</v>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>196</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135" t="s">
+        <v>197</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="136" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F136" s="1" t="s">
-        <v>13</v>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>196</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136" t="s">
+        <v>197</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F137" s="1" t="s">
-        <v>13</v>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>196</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>197</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F138" s="1" t="s">
-        <v>13</v>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>196</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138" t="s">
+        <v>197</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="139" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F139" s="1" t="s">
-        <v>13</v>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>196</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>197</v>
       </c>
       <c r="K139" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F140" s="1" t="s">
-        <v>13</v>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>196</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>197</v>
       </c>
       <c r="K140" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F141" s="1" t="s">
-        <v>13</v>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>196</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>197</v>
       </c>
       <c r="K141" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F142" s="1" t="s">
-        <v>13</v>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>196</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>197</v>
       </c>
       <c r="K142" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F143" s="1" t="s">
-        <v>13</v>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>196</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>197</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F144" s="1" t="s">
-        <v>13</v>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>196</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>197</v>
       </c>
       <c r="K144" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F145" s="1" t="s">
-        <v>13</v>
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>196</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>197</v>
       </c>
       <c r="K145" s="3" t="s">
         <v>172</v>
@@ -3018,152 +4290,361 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F148" s="1" t="s">
-        <v>13</v>
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" t="s">
+        <v>196</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>197</v>
       </c>
       <c r="K148" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F149" s="1" t="s">
-        <v>13</v>
+      <c r="A149" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" t="s">
+        <v>196</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>197</v>
       </c>
       <c r="K149" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F150" s="1" t="s">
-        <v>13</v>
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" t="s">
+        <v>196</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>197</v>
       </c>
       <c r="K150" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F151" s="1" t="s">
-        <v>13</v>
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="s">
+        <v>196</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>197</v>
       </c>
       <c r="K151" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F152" s="1" t="s">
-        <v>13</v>
+      <c r="A152" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>196</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152" t="s">
+        <v>197</v>
       </c>
       <c r="K152" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F153" s="1" t="s">
-        <v>13</v>
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" t="s">
+        <v>196</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153" t="s">
+        <v>197</v>
       </c>
       <c r="K153" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F154" s="1" t="s">
-        <v>13</v>
+      <c r="A154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>196</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>197</v>
       </c>
       <c r="K154" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F155" s="1" t="s">
-        <v>13</v>
+      <c r="A155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>196</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155" t="s">
+        <v>197</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F156" s="1" t="s">
-        <v>13</v>
+      <c r="A156" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>196</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156" t="s">
+        <v>197</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F157" s="1" t="s">
-        <v>13</v>
+      <c r="A157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>196</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157" t="s">
+        <v>197</v>
       </c>
       <c r="K157" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F158" s="1" t="s">
-        <v>13</v>
+      <c r="A158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" t="s">
+        <v>196</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158" t="s">
+        <v>197</v>
       </c>
       <c r="K158" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F159" s="1" t="s">
-        <v>13</v>
+      <c r="A159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>196</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159" t="s">
+        <v>197</v>
       </c>
       <c r="K159" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F160" s="1" t="s">
-        <v>13</v>
+      <c r="A160" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>196</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160" t="s">
+        <v>197</v>
       </c>
       <c r="K160" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F161" s="1" t="s">
-        <v>13</v>
+      <c r="A161" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" t="s">
+        <v>196</v>
+      </c>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161" t="s">
+        <v>197</v>
       </c>
       <c r="K161" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F162" s="1" t="s">
-        <v>13</v>
+      <c r="A162" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>196</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162" t="s">
+        <v>197</v>
       </c>
       <c r="K162" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F163" s="1" t="s">
-        <v>13</v>
+      <c r="A163" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>196</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163" t="s">
+        <v>197</v>
       </c>
       <c r="K163" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F164" s="1" t="s">
-        <v>13</v>
+      <c r="A164" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>196</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164" t="s">
+        <v>197</v>
       </c>
       <c r="K164" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F165" s="1" t="s">
-        <v>13</v>
+      <c r="A165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>196</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165" t="s">
+        <v>197</v>
       </c>
       <c r="K165" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F166" s="1" t="s">
-        <v>13</v>
+      <c r="A166" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" t="s">
+        <v>196</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166" t="s">
+        <v>197</v>
       </c>
       <c r="K166" s="3" t="s">
         <v>191</v>
@@ -3201,56 +4682,133 @@
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F169" s="1" t="s">
-        <v>13</v>
+      <c r="A169" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" t="s">
+        <v>196</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169" t="s">
+        <v>197</v>
       </c>
       <c r="K169" s="3">
         <v>1201</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F170" s="1" t="s">
-        <v>13</v>
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>196</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170" t="s">
+        <v>197</v>
       </c>
       <c r="K170" s="3">
         <v>1202</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F171" s="1" t="s">
-        <v>13</v>
+      <c r="A171" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" t="s">
+        <v>196</v>
+      </c>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171" t="s">
+        <v>197</v>
       </c>
       <c r="K171" s="3">
         <v>1203</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F172" s="1" t="s">
-        <v>13</v>
+      <c r="A172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172" t="s">
+        <v>197</v>
       </c>
       <c r="K172" s="3">
         <v>1204</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F173" s="1" t="s">
-        <v>13</v>
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" t="s">
+        <v>196</v>
+      </c>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173" t="s">
+        <v>197</v>
       </c>
       <c r="K173" s="3">
         <v>1205</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F174" s="1" t="s">
-        <v>13</v>
+      <c r="A174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" t="s">
+        <v>196</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174" t="s">
+        <v>197</v>
       </c>
       <c r="K174" s="3">
         <v>1206</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F175" s="1" t="s">
-        <v>13</v>
+      <c r="A175" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" t="s">
+        <v>196</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175" t="s">
+        <v>197</v>
       </c>
       <c r="K175" s="3">
         <v>1207</v>
@@ -3288,72 +4846,171 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F178" s="1" t="s">
-        <v>13</v>
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" t="s">
+        <v>196</v>
+      </c>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178" t="s">
+        <v>197</v>
       </c>
       <c r="K178" s="3">
         <v>1301</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F179" s="1" t="s">
-        <v>13</v>
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" t="s">
+        <v>196</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179" t="s">
+        <v>197</v>
       </c>
       <c r="K179" s="3">
         <v>1302</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F180" s="1" t="s">
-        <v>13</v>
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" t="s">
+        <v>196</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180" t="s">
+        <v>197</v>
       </c>
       <c r="K180" s="3">
         <v>1303</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F181" s="1" t="s">
-        <v>13</v>
+      <c r="A181" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s">
+        <v>196</v>
+      </c>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181" t="s">
+        <v>197</v>
       </c>
       <c r="K181" s="3">
         <v>1304</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F182" s="1" t="s">
-        <v>13</v>
+      <c r="A182" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" t="s">
+        <v>196</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182" t="s">
+        <v>197</v>
       </c>
       <c r="K182" s="3">
         <v>1305</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F183" s="1" t="s">
-        <v>13</v>
+      <c r="A183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183" t="s">
+        <v>197</v>
       </c>
       <c r="K183" s="3">
         <v>1306</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F184" s="1" t="s">
-        <v>13</v>
+      <c r="A184" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" t="s">
+        <v>196</v>
+      </c>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184" t="s">
+        <v>197</v>
       </c>
       <c r="K184" s="3">
         <v>1307</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F185" s="1" t="s">
-        <v>13</v>
+      <c r="A185" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" t="s">
+        <v>196</v>
+      </c>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185" t="s">
+        <v>197</v>
       </c>
       <c r="K185" s="3">
         <v>1308</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F186" s="1" t="s">
-        <v>13</v>
+      <c r="A186" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" t="s">
+        <v>196</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186" t="s">
+        <v>197</v>
       </c>
       <c r="K186" s="3">
         <v>1309</v>
@@ -3391,72 +5048,171 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F189" s="1" t="s">
-        <v>13</v>
+      <c r="A189" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>196</v>
+      </c>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189" t="s">
+        <v>197</v>
       </c>
       <c r="K189" s="3">
         <v>1401</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F190" s="1" t="s">
-        <v>13</v>
+      <c r="A190" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" t="s">
+        <v>196</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190" t="s">
+        <v>197</v>
       </c>
       <c r="K190" s="3">
         <v>1402</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F191" s="1" t="s">
-        <v>13</v>
+      <c r="A191" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>196</v>
+      </c>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191" t="s">
+        <v>197</v>
       </c>
       <c r="K191" s="3">
         <v>1403</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F192" s="1" t="s">
-        <v>13</v>
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>196</v>
+      </c>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192" t="s">
+        <v>197</v>
       </c>
       <c r="K192" s="3">
         <v>1404</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F193" s="1" t="s">
-        <v>13</v>
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193" t="s">
+        <v>197</v>
       </c>
       <c r="K193" s="3">
         <v>1405</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F194" s="1" t="s">
-        <v>13</v>
+      <c r="A194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>196</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194" t="s">
+        <v>197</v>
       </c>
       <c r="K194" s="3">
         <v>1406</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F195" s="1" t="s">
-        <v>13</v>
+      <c r="A195" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>196</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195" t="s">
+        <v>197</v>
       </c>
       <c r="K195" s="3">
         <v>1407</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F196" s="1" t="s">
-        <v>13</v>
+      <c r="A196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>196</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196" t="s">
+        <v>197</v>
       </c>
       <c r="K196" s="3">
         <v>1408</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F197" s="1" t="s">
-        <v>13</v>
+      <c r="A197" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>196</v>
+      </c>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197" t="s">
+        <v>197</v>
       </c>
       <c r="K197" s="3">
         <v>1409</v>
@@ -3494,72 +5250,171 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F200" s="1" t="s">
-        <v>13</v>
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" t="s">
+        <v>196</v>
+      </c>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200" t="s">
+        <v>197</v>
       </c>
       <c r="K200" s="3">
         <v>1501</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F201" s="1" t="s">
-        <v>13</v>
+      <c r="A201" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" t="s">
+        <v>196</v>
+      </c>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201" t="s">
+        <v>197</v>
       </c>
       <c r="K201" s="3">
         <v>1502</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F202" s="1" t="s">
-        <v>13</v>
+      <c r="A202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202" t="s">
+        <v>197</v>
       </c>
       <c r="K202" s="3">
         <v>1503</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F203" s="1" t="s">
-        <v>13</v>
+      <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" t="s">
+        <v>196</v>
+      </c>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203" t="s">
+        <v>197</v>
       </c>
       <c r="K203" s="3">
         <v>1504</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F204" s="1" t="s">
-        <v>13</v>
+      <c r="A204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" t="s">
+        <v>196</v>
+      </c>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204" t="s">
+        <v>197</v>
       </c>
       <c r="K204" s="3">
         <v>1505</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F205" s="1" t="s">
-        <v>13</v>
+      <c r="A205" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" t="s">
+        <v>196</v>
+      </c>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205" t="s">
+        <v>197</v>
       </c>
       <c r="K205" s="3">
         <v>1506</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F206" s="1" t="s">
-        <v>13</v>
+      <c r="A206" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" t="s">
+        <v>196</v>
+      </c>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206" t="s">
+        <v>197</v>
       </c>
       <c r="K206" s="3">
         <v>1507</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F207" s="1" t="s">
-        <v>13</v>
+      <c r="A207" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" t="s">
+        <v>196</v>
+      </c>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207" t="s">
+        <v>197</v>
       </c>
       <c r="K207" s="3">
         <v>1508</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F208" s="1" t="s">
-        <v>13</v>
+      <c r="A208" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" t="s">
+        <v>196</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208" t="s">
+        <v>197</v>
       </c>
       <c r="K208" s="3">
         <v>1509</v>
@@ -3597,64 +5452,152 @@
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F211" s="1" t="s">
-        <v>13</v>
+      <c r="A211" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" t="s">
+        <v>18</v>
+      </c>
+      <c r="C211" t="s">
+        <v>196</v>
+      </c>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211" t="s">
+        <v>197</v>
       </c>
       <c r="K211" s="3">
         <v>1601</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F212" s="1" t="s">
-        <v>13</v>
+      <c r="A212" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" t="s">
+        <v>196</v>
+      </c>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212" t="s">
+        <v>197</v>
       </c>
       <c r="K212" s="3">
         <v>1602</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F213" s="1" t="s">
-        <v>13</v>
+      <c r="A213" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" t="s">
+        <v>18</v>
+      </c>
+      <c r="C213" t="s">
+        <v>196</v>
+      </c>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213" t="s">
+        <v>197</v>
       </c>
       <c r="K213" s="3">
         <v>1603</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F214" s="1" t="s">
-        <v>13</v>
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" t="s">
+        <v>196</v>
+      </c>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214" t="s">
+        <v>197</v>
       </c>
       <c r="K214" s="3">
         <v>1604</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F215" s="1" t="s">
-        <v>13</v>
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" t="s">
+        <v>196</v>
+      </c>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215" t="s">
+        <v>197</v>
       </c>
       <c r="K215" s="3">
         <v>1605</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F216" s="1" t="s">
-        <v>13</v>
+      <c r="A216" t="s">
+        <v>17</v>
+      </c>
+      <c r="B216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216" t="s">
+        <v>196</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216" t="s">
+        <v>197</v>
       </c>
       <c r="K216" s="3">
         <v>1606</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F217" s="1" t="s">
-        <v>13</v>
+      <c r="A217" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" t="s">
+        <v>18</v>
+      </c>
+      <c r="C217" t="s">
+        <v>196</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217" t="s">
+        <v>197</v>
       </c>
       <c r="K217" s="3">
         <v>1607</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F218" s="1" t="s">
-        <v>13</v>
+      <c r="A218" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" t="s">
+        <v>18</v>
+      </c>
+      <c r="C218" t="s">
+        <v>196</v>
+      </c>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218" t="s">
+        <v>197</v>
       </c>
       <c r="K218" s="3">
         <v>1608</v>
@@ -3692,64 +5635,152 @@
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F221" s="1" t="s">
-        <v>13</v>
+      <c r="A221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" t="s">
+        <v>196</v>
+      </c>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221" t="s">
+        <v>197</v>
       </c>
       <c r="K221" s="3">
         <v>1701</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F222" s="1" t="s">
-        <v>13</v>
+      <c r="A222" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" t="s">
+        <v>196</v>
+      </c>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222" t="s">
+        <v>197</v>
       </c>
       <c r="K222" s="3">
         <v>1702</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F223" s="1" t="s">
-        <v>13</v>
+      <c r="A223" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223" t="s">
+        <v>18</v>
+      </c>
+      <c r="C223" t="s">
+        <v>196</v>
+      </c>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223" t="s">
+        <v>197</v>
       </c>
       <c r="K223" s="3">
         <v>1703</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F224" s="1" t="s">
-        <v>13</v>
+      <c r="A224" t="s">
+        <v>17</v>
+      </c>
+      <c r="B224" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" t="s">
+        <v>196</v>
+      </c>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224" t="s">
+        <v>197</v>
       </c>
       <c r="K224" s="3">
         <v>1704</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F225" s="1" t="s">
-        <v>13</v>
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" t="s">
+        <v>196</v>
+      </c>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225" t="s">
+        <v>197</v>
       </c>
       <c r="K225" s="3">
         <v>1705</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F226" s="1" t="s">
-        <v>13</v>
+      <c r="A226" t="s">
+        <v>17</v>
+      </c>
+      <c r="B226" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226" t="s">
+        <v>196</v>
+      </c>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226" t="s">
+        <v>197</v>
       </c>
       <c r="K226" s="3">
         <v>1706</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F227" s="1" t="s">
-        <v>13</v>
+      <c r="A227" t="s">
+        <v>17</v>
+      </c>
+      <c r="B227" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227" t="s">
+        <v>196</v>
+      </c>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227" t="s">
+        <v>197</v>
       </c>
       <c r="K227" s="3">
         <v>1707</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F228" s="1" t="s">
-        <v>13</v>
+      <c r="A228" t="s">
+        <v>17</v>
+      </c>
+      <c r="B228" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" t="s">
+        <v>196</v>
+      </c>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228" t="s">
+        <v>197</v>
       </c>
       <c r="K228" s="3">
         <v>1708</v>
@@ -3787,64 +5818,152 @@
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F231" s="1" t="s">
-        <v>13</v>
+      <c r="A231" t="s">
+        <v>17</v>
+      </c>
+      <c r="B231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" t="s">
+        <v>196</v>
+      </c>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231" t="s">
+        <v>197</v>
       </c>
       <c r="K231" s="3">
         <v>1801</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F232" s="1" t="s">
-        <v>13</v>
+      <c r="A232" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" t="s">
+        <v>196</v>
+      </c>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232" t="s">
+        <v>197</v>
       </c>
       <c r="K232" s="3">
         <v>1802</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F233" s="1" t="s">
-        <v>13</v>
+      <c r="A233" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" t="s">
+        <v>196</v>
+      </c>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233" t="s">
+        <v>197</v>
       </c>
       <c r="K233" s="3">
         <v>1803</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F234" s="1" t="s">
-        <v>13</v>
+      <c r="A234" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" t="s">
+        <v>196</v>
+      </c>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234" t="s">
+        <v>197</v>
       </c>
       <c r="K234" s="3">
         <v>1804</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F235" s="1" t="s">
-        <v>13</v>
+      <c r="A235" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" t="s">
+        <v>196</v>
+      </c>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235" t="s">
+        <v>197</v>
       </c>
       <c r="K235" s="3">
         <v>1805</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F236" s="1" t="s">
-        <v>13</v>
+      <c r="A236" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" t="s">
+        <v>196</v>
+      </c>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236" t="s">
+        <v>197</v>
       </c>
       <c r="K236" s="3">
         <v>1806</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F237" s="1" t="s">
-        <v>13</v>
+      <c r="A237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" t="s">
+        <v>196</v>
+      </c>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237" t="s">
+        <v>197</v>
       </c>
       <c r="K237" s="3">
         <v>1807</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F238" s="1" t="s">
-        <v>13</v>
+      <c r="A238" t="s">
+        <v>17</v>
+      </c>
+      <c r="B238" t="s">
+        <v>18</v>
+      </c>
+      <c r="C238" t="s">
+        <v>196</v>
+      </c>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238" t="s">
+        <v>197</v>
       </c>
       <c r="K238" s="3">
         <v>1808</v>
@@ -3882,64 +6001,152 @@
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F241" s="1" t="s">
-        <v>13</v>
+      <c r="A241" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241" t="s">
+        <v>18</v>
+      </c>
+      <c r="C241" t="s">
+        <v>196</v>
+      </c>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241" t="s">
+        <v>197</v>
       </c>
       <c r="K241" s="3">
         <v>1901</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F242" s="1" t="s">
-        <v>13</v>
+      <c r="A242" t="s">
+        <v>17</v>
+      </c>
+      <c r="B242" t="s">
+        <v>18</v>
+      </c>
+      <c r="C242" t="s">
+        <v>196</v>
+      </c>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242" t="s">
+        <v>197</v>
       </c>
       <c r="K242" s="3">
         <v>1902</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F243" s="1" t="s">
-        <v>13</v>
+      <c r="A243" t="s">
+        <v>17</v>
+      </c>
+      <c r="B243" t="s">
+        <v>18</v>
+      </c>
+      <c r="C243" t="s">
+        <v>196</v>
+      </c>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243" t="s">
+        <v>197</v>
       </c>
       <c r="K243" s="3">
         <v>1903</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F244" s="1" t="s">
-        <v>13</v>
+      <c r="A244" t="s">
+        <v>17</v>
+      </c>
+      <c r="B244" t="s">
+        <v>18</v>
+      </c>
+      <c r="C244" t="s">
+        <v>196</v>
+      </c>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244" t="s">
+        <v>197</v>
       </c>
       <c r="K244" s="3">
         <v>1904</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F245" s="1" t="s">
-        <v>13</v>
+      <c r="A245" t="s">
+        <v>17</v>
+      </c>
+      <c r="B245" t="s">
+        <v>18</v>
+      </c>
+      <c r="C245" t="s">
+        <v>196</v>
+      </c>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245" t="s">
+        <v>197</v>
       </c>
       <c r="K245" s="3">
         <v>1905</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F246" s="1" t="s">
-        <v>13</v>
+      <c r="A246" t="s">
+        <v>17</v>
+      </c>
+      <c r="B246" t="s">
+        <v>18</v>
+      </c>
+      <c r="C246" t="s">
+        <v>196</v>
+      </c>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246" t="s">
+        <v>197</v>
       </c>
       <c r="K246" s="3">
         <v>1906</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F247" s="1" t="s">
-        <v>13</v>
+      <c r="A247" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" t="s">
+        <v>18</v>
+      </c>
+      <c r="C247" t="s">
+        <v>196</v>
+      </c>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247" t="s">
+        <v>197</v>
       </c>
       <c r="K247" s="3">
         <v>1907</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F248" s="1" t="s">
-        <v>13</v>
+      <c r="A248" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248" t="s">
+        <v>196</v>
+      </c>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248" t="s">
+        <v>197</v>
       </c>
       <c r="K248" s="3">
         <v>1908</v>
@@ -3977,64 +6184,152 @@
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F251" s="1" t="s">
-        <v>13</v>
+      <c r="A251" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251" t="s">
+        <v>18</v>
+      </c>
+      <c r="C251" t="s">
+        <v>196</v>
+      </c>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251" t="s">
+        <v>197</v>
       </c>
       <c r="K251" s="3">
         <v>2001</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F252" s="1" t="s">
-        <v>13</v>
+      <c r="A252" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" t="s">
+        <v>196</v>
+      </c>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252" t="s">
+        <v>197</v>
       </c>
       <c r="K252" s="3">
         <v>2002</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F253" s="1" t="s">
-        <v>13</v>
+      <c r="A253" t="s">
+        <v>17</v>
+      </c>
+      <c r="B253" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253" t="s">
+        <v>196</v>
+      </c>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253" t="s">
+        <v>197</v>
       </c>
       <c r="K253" s="3">
         <v>2003</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F254" s="1" t="s">
-        <v>13</v>
+      <c r="A254" t="s">
+        <v>17</v>
+      </c>
+      <c r="B254" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" t="s">
+        <v>196</v>
+      </c>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254" t="s">
+        <v>197</v>
       </c>
       <c r="K254" s="3">
         <v>2004</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F255" s="1" t="s">
-        <v>13</v>
+      <c r="A255" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" t="s">
+        <v>18</v>
+      </c>
+      <c r="C255" t="s">
+        <v>196</v>
+      </c>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255" t="s">
+        <v>197</v>
       </c>
       <c r="K255" s="3">
         <v>2005</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F256" s="1" t="s">
-        <v>13</v>
+      <c r="A256" t="s">
+        <v>17</v>
+      </c>
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" t="s">
+        <v>196</v>
+      </c>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256" t="s">
+        <v>197</v>
       </c>
       <c r="K256" s="3">
         <v>2006</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F257" s="1" t="s">
-        <v>13</v>
+      <c r="A257" t="s">
+        <v>17</v>
+      </c>
+      <c r="B257" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" t="s">
+        <v>196</v>
+      </c>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257" t="s">
+        <v>197</v>
       </c>
       <c r="K257" s="3">
         <v>2007</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F258" s="1" t="s">
-        <v>13</v>
+      <c r="A258" t="s">
+        <v>17</v>
+      </c>
+      <c r="B258" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" t="s">
+        <v>196</v>
+      </c>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258" t="s">
+        <v>197</v>
       </c>
       <c r="K258" s="3">
         <v>2008</v>
@@ -4072,64 +6367,152 @@
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F261" s="1" t="s">
-        <v>13</v>
+      <c r="A261" t="s">
+        <v>17</v>
+      </c>
+      <c r="B261" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" t="s">
+        <v>196</v>
+      </c>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261" t="s">
+        <v>197</v>
       </c>
       <c r="K261" s="3">
         <v>2101</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F262" s="1" t="s">
-        <v>13</v>
+      <c r="A262" t="s">
+        <v>17</v>
+      </c>
+      <c r="B262" t="s">
+        <v>18</v>
+      </c>
+      <c r="C262" t="s">
+        <v>196</v>
+      </c>
+      <c r="D262"/>
+      <c r="E262"/>
+      <c r="F262" t="s">
+        <v>197</v>
       </c>
       <c r="K262" s="3">
         <v>2102</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F263" s="1" t="s">
-        <v>13</v>
+      <c r="A263" t="s">
+        <v>17</v>
+      </c>
+      <c r="B263" t="s">
+        <v>18</v>
+      </c>
+      <c r="C263" t="s">
+        <v>196</v>
+      </c>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263" t="s">
+        <v>197</v>
       </c>
       <c r="K263" s="3">
         <v>2103</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F264" s="1" t="s">
-        <v>13</v>
+      <c r="A264" t="s">
+        <v>17</v>
+      </c>
+      <c r="B264" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264" t="s">
+        <v>196</v>
+      </c>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264" t="s">
+        <v>197</v>
       </c>
       <c r="K264" s="3">
         <v>2104</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F265" s="1" t="s">
-        <v>13</v>
+      <c r="A265" t="s">
+        <v>17</v>
+      </c>
+      <c r="B265" t="s">
+        <v>18</v>
+      </c>
+      <c r="C265" t="s">
+        <v>196</v>
+      </c>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265" t="s">
+        <v>197</v>
       </c>
       <c r="K265" s="3">
         <v>2105</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F266" s="1" t="s">
-        <v>13</v>
+      <c r="A266" t="s">
+        <v>17</v>
+      </c>
+      <c r="B266" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266" t="s">
+        <v>196</v>
+      </c>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266" t="s">
+        <v>197</v>
       </c>
       <c r="K266" s="3">
         <v>2106</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F267" s="1" t="s">
-        <v>13</v>
+      <c r="A267" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267" t="s">
+        <v>18</v>
+      </c>
+      <c r="C267" t="s">
+        <v>196</v>
+      </c>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267" t="s">
+        <v>197</v>
       </c>
       <c r="K267" s="3">
         <v>2107</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F268" s="1" t="s">
-        <v>13</v>
+      <c r="A268" t="s">
+        <v>17</v>
+      </c>
+      <c r="B268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" t="s">
+        <v>196</v>
+      </c>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268" t="s">
+        <v>197</v>
       </c>
       <c r="K268" s="3">
         <v>2108</v>
@@ -4167,64 +6550,152 @@
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F271" s="1" t="s">
-        <v>13</v>
+      <c r="A271" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271" t="s">
+        <v>196</v>
+      </c>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271" t="s">
+        <v>197</v>
       </c>
       <c r="K271" s="3">
         <v>2201</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F272" s="1" t="s">
-        <v>13</v>
+      <c r="A272" t="s">
+        <v>17</v>
+      </c>
+      <c r="B272" t="s">
+        <v>18</v>
+      </c>
+      <c r="C272" t="s">
+        <v>196</v>
+      </c>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272" t="s">
+        <v>197</v>
       </c>
       <c r="K272" s="3">
         <v>2202</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F273" s="1" t="s">
-        <v>13</v>
+      <c r="A273" t="s">
+        <v>17</v>
+      </c>
+      <c r="B273" t="s">
+        <v>18</v>
+      </c>
+      <c r="C273" t="s">
+        <v>196</v>
+      </c>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273" t="s">
+        <v>197</v>
       </c>
       <c r="K273" s="3">
         <v>2203</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F274" s="1" t="s">
-        <v>13</v>
+      <c r="A274" t="s">
+        <v>17</v>
+      </c>
+      <c r="B274" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274" t="s">
+        <v>196</v>
+      </c>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274" t="s">
+        <v>197</v>
       </c>
       <c r="K274" s="3">
         <v>2204</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F275" s="1" t="s">
-        <v>13</v>
+      <c r="A275" t="s">
+        <v>17</v>
+      </c>
+      <c r="B275" t="s">
+        <v>18</v>
+      </c>
+      <c r="C275" t="s">
+        <v>196</v>
+      </c>
+      <c r="D275"/>
+      <c r="E275"/>
+      <c r="F275" t="s">
+        <v>197</v>
       </c>
       <c r="K275" s="3">
         <v>2205</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F276" s="1" t="s">
-        <v>13</v>
+      <c r="A276" t="s">
+        <v>17</v>
+      </c>
+      <c r="B276" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276" t="s">
+        <v>196</v>
+      </c>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276" t="s">
+        <v>197</v>
       </c>
       <c r="K276" s="3">
         <v>2206</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F277" s="1" t="s">
-        <v>13</v>
+      <c r="A277" t="s">
+        <v>17</v>
+      </c>
+      <c r="B277" t="s">
+        <v>18</v>
+      </c>
+      <c r="C277" t="s">
+        <v>196</v>
+      </c>
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277" t="s">
+        <v>197</v>
       </c>
       <c r="K277" s="3">
         <v>2207</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F278" s="1" t="s">
-        <v>13</v>
+      <c r="A278" t="s">
+        <v>17</v>
+      </c>
+      <c r="B278" t="s">
+        <v>18</v>
+      </c>
+      <c r="C278" t="s">
+        <v>196</v>
+      </c>
+      <c r="D278"/>
+      <c r="E278"/>
+      <c r="F278" t="s">
+        <v>197</v>
       </c>
       <c r="K278" s="3">
         <v>2208</v>
@@ -4262,64 +6733,152 @@
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F281" s="1" t="s">
-        <v>13</v>
+      <c r="A281" t="s">
+        <v>17</v>
+      </c>
+      <c r="B281" t="s">
+        <v>18</v>
+      </c>
+      <c r="C281" t="s">
+        <v>196</v>
+      </c>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281" t="s">
+        <v>197</v>
       </c>
       <c r="K281" s="3">
         <v>2301</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F282" s="1" t="s">
-        <v>13</v>
+      <c r="A282" t="s">
+        <v>17</v>
+      </c>
+      <c r="B282" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" t="s">
+        <v>196</v>
+      </c>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282" t="s">
+        <v>197</v>
       </c>
       <c r="K282" s="3">
         <v>2302</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F283" s="1" t="s">
-        <v>13</v>
+      <c r="A283" t="s">
+        <v>17</v>
+      </c>
+      <c r="B283" t="s">
+        <v>18</v>
+      </c>
+      <c r="C283" t="s">
+        <v>196</v>
+      </c>
+      <c r="D283"/>
+      <c r="E283"/>
+      <c r="F283" t="s">
+        <v>197</v>
       </c>
       <c r="K283" s="3">
         <v>2303</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F284" s="1" t="s">
-        <v>13</v>
+      <c r="A284" t="s">
+        <v>17</v>
+      </c>
+      <c r="B284" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" t="s">
+        <v>196</v>
+      </c>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284" t="s">
+        <v>197</v>
       </c>
       <c r="K284" s="3">
         <v>2304</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F285" s="1" t="s">
-        <v>13</v>
+      <c r="A285" t="s">
+        <v>17</v>
+      </c>
+      <c r="B285" t="s">
+        <v>18</v>
+      </c>
+      <c r="C285" t="s">
+        <v>196</v>
+      </c>
+      <c r="D285"/>
+      <c r="E285"/>
+      <c r="F285" t="s">
+        <v>197</v>
       </c>
       <c r="K285" s="3">
         <v>2305</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F286" s="1" t="s">
-        <v>13</v>
+      <c r="A286" t="s">
+        <v>17</v>
+      </c>
+      <c r="B286" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" t="s">
+        <v>196</v>
+      </c>
+      <c r="D286"/>
+      <c r="E286"/>
+      <c r="F286" t="s">
+        <v>197</v>
       </c>
       <c r="K286" s="3">
         <v>2306</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F287" s="1" t="s">
-        <v>13</v>
+      <c r="A287" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" t="s">
+        <v>196</v>
+      </c>
+      <c r="D287"/>
+      <c r="E287"/>
+      <c r="F287" t="s">
+        <v>197</v>
       </c>
       <c r="K287" s="3">
         <v>2307</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F288" s="1" t="s">
-        <v>13</v>
+      <c r="A288" t="s">
+        <v>17</v>
+      </c>
+      <c r="B288" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" t="s">
+        <v>196</v>
+      </c>
+      <c r="D288"/>
+      <c r="E288"/>
+      <c r="F288" t="s">
+        <v>197</v>
       </c>
       <c r="K288" s="3">
         <v>2308</v>
@@ -4357,64 +6916,152 @@
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F291" s="1" t="s">
-        <v>13</v>
+      <c r="A291" t="s">
+        <v>17</v>
+      </c>
+      <c r="B291" t="s">
+        <v>18</v>
+      </c>
+      <c r="C291" t="s">
+        <v>196</v>
+      </c>
+      <c r="D291"/>
+      <c r="E291"/>
+      <c r="F291" t="s">
+        <v>197</v>
       </c>
       <c r="K291" s="3">
         <v>2401</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F292" s="1" t="s">
-        <v>13</v>
+      <c r="A292" t="s">
+        <v>17</v>
+      </c>
+      <c r="B292" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292" t="s">
+        <v>196</v>
+      </c>
+      <c r="D292"/>
+      <c r="E292"/>
+      <c r="F292" t="s">
+        <v>197</v>
       </c>
       <c r="K292" s="3">
         <v>2402</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F293" s="1" t="s">
-        <v>13</v>
+      <c r="A293" t="s">
+        <v>17</v>
+      </c>
+      <c r="B293" t="s">
+        <v>18</v>
+      </c>
+      <c r="C293" t="s">
+        <v>196</v>
+      </c>
+      <c r="D293"/>
+      <c r="E293"/>
+      <c r="F293" t="s">
+        <v>197</v>
       </c>
       <c r="K293" s="3">
         <v>2403</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F294" s="1" t="s">
-        <v>13</v>
+      <c r="A294" t="s">
+        <v>17</v>
+      </c>
+      <c r="B294" t="s">
+        <v>18</v>
+      </c>
+      <c r="C294" t="s">
+        <v>196</v>
+      </c>
+      <c r="D294"/>
+      <c r="E294"/>
+      <c r="F294" t="s">
+        <v>197</v>
       </c>
       <c r="K294" s="3">
         <v>2404</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F295" s="1" t="s">
-        <v>13</v>
+      <c r="A295" t="s">
+        <v>17</v>
+      </c>
+      <c r="B295" t="s">
+        <v>18</v>
+      </c>
+      <c r="C295" t="s">
+        <v>196</v>
+      </c>
+      <c r="D295"/>
+      <c r="E295"/>
+      <c r="F295" t="s">
+        <v>197</v>
       </c>
       <c r="K295" s="3">
         <v>2405</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F296" s="1" t="s">
-        <v>13</v>
+      <c r="A296" t="s">
+        <v>17</v>
+      </c>
+      <c r="B296" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" t="s">
+        <v>196</v>
+      </c>
+      <c r="D296"/>
+      <c r="E296"/>
+      <c r="F296" t="s">
+        <v>197</v>
       </c>
       <c r="K296" s="3">
         <v>2406</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F297" s="1" t="s">
-        <v>13</v>
+      <c r="A297" t="s">
+        <v>17</v>
+      </c>
+      <c r="B297" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" t="s">
+        <v>196</v>
+      </c>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297" t="s">
+        <v>197</v>
       </c>
       <c r="K297" s="3">
         <v>2407</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F298" s="1" t="s">
-        <v>13</v>
+      <c r="A298" t="s">
+        <v>17</v>
+      </c>
+      <c r="B298" t="s">
+        <v>18</v>
+      </c>
+      <c r="C298" t="s">
+        <v>196</v>
+      </c>
+      <c r="D298"/>
+      <c r="E298"/>
+      <c r="F298" t="s">
+        <v>197</v>
       </c>
       <c r="K298" s="3">
         <v>2408</v>
@@ -4452,64 +7099,152 @@
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F301" s="1" t="s">
-        <v>13</v>
+      <c r="A301" t="s">
+        <v>17</v>
+      </c>
+      <c r="B301" t="s">
+        <v>18</v>
+      </c>
+      <c r="C301" t="s">
+        <v>196</v>
+      </c>
+      <c r="D301"/>
+      <c r="E301"/>
+      <c r="F301" t="s">
+        <v>197</v>
       </c>
       <c r="K301" s="3">
         <v>2501</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F302" s="1" t="s">
-        <v>13</v>
+      <c r="A302" t="s">
+        <v>17</v>
+      </c>
+      <c r="B302" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302" t="s">
+        <v>196</v>
+      </c>
+      <c r="D302"/>
+      <c r="E302"/>
+      <c r="F302" t="s">
+        <v>197</v>
       </c>
       <c r="K302" s="3">
         <v>2502</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F303" s="1" t="s">
-        <v>13</v>
+      <c r="A303" t="s">
+        <v>17</v>
+      </c>
+      <c r="B303" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303" t="s">
+        <v>196</v>
+      </c>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303" t="s">
+        <v>197</v>
       </c>
       <c r="K303" s="3">
         <v>2503</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F304" s="1" t="s">
-        <v>13</v>
+      <c r="A304" t="s">
+        <v>17</v>
+      </c>
+      <c r="B304" t="s">
+        <v>18</v>
+      </c>
+      <c r="C304" t="s">
+        <v>196</v>
+      </c>
+      <c r="D304"/>
+      <c r="E304"/>
+      <c r="F304" t="s">
+        <v>197</v>
       </c>
       <c r="K304" s="3">
         <v>2504</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F305" s="1" t="s">
-        <v>13</v>
+      <c r="A305" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305" t="s">
+        <v>18</v>
+      </c>
+      <c r="C305" t="s">
+        <v>196</v>
+      </c>
+      <c r="D305"/>
+      <c r="E305"/>
+      <c r="F305" t="s">
+        <v>197</v>
       </c>
       <c r="K305" s="3">
         <v>2505</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F306" s="1" t="s">
-        <v>13</v>
+      <c r="A306" t="s">
+        <v>17</v>
+      </c>
+      <c r="B306" t="s">
+        <v>18</v>
+      </c>
+      <c r="C306" t="s">
+        <v>196</v>
+      </c>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306" t="s">
+        <v>197</v>
       </c>
       <c r="K306" s="3">
         <v>2506</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F307" s="1" t="s">
-        <v>13</v>
+      <c r="A307" t="s">
+        <v>17</v>
+      </c>
+      <c r="B307" t="s">
+        <v>18</v>
+      </c>
+      <c r="C307" t="s">
+        <v>196</v>
+      </c>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307" t="s">
+        <v>197</v>
       </c>
       <c r="K307" s="3">
         <v>2507</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F308" s="1" t="s">
-        <v>13</v>
+      <c r="A308" t="s">
+        <v>17</v>
+      </c>
+      <c r="B308" t="s">
+        <v>18</v>
+      </c>
+      <c r="C308" t="s">
+        <v>196</v>
+      </c>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308" t="s">
+        <v>197</v>
       </c>
       <c r="K308" s="3">
         <v>2508</v>
@@ -4547,40 +7282,95 @@
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F311" s="1" t="s">
-        <v>13</v>
+      <c r="A311" t="s">
+        <v>17</v>
+      </c>
+      <c r="B311" t="s">
+        <v>18</v>
+      </c>
+      <c r="C311" t="s">
+        <v>196</v>
+      </c>
+      <c r="D311"/>
+      <c r="E311"/>
+      <c r="F311" t="s">
+        <v>197</v>
       </c>
       <c r="K311" s="3">
         <v>2601</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F312" s="1" t="s">
-        <v>13</v>
+      <c r="A312" t="s">
+        <v>17</v>
+      </c>
+      <c r="B312" t="s">
+        <v>18</v>
+      </c>
+      <c r="C312" t="s">
+        <v>196</v>
+      </c>
+      <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312" t="s">
+        <v>197</v>
       </c>
       <c r="K312" s="3">
         <v>2602</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F313" s="1" t="s">
-        <v>13</v>
+      <c r="A313" t="s">
+        <v>17</v>
+      </c>
+      <c r="B313" t="s">
+        <v>18</v>
+      </c>
+      <c r="C313" t="s">
+        <v>196</v>
+      </c>
+      <c r="D313"/>
+      <c r="E313"/>
+      <c r="F313" t="s">
+        <v>197</v>
       </c>
       <c r="K313" s="3">
         <v>2603</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F314" s="1" t="s">
-        <v>13</v>
+      <c r="A314" t="s">
+        <v>17</v>
+      </c>
+      <c r="B314" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314" t="s">
+        <v>196</v>
+      </c>
+      <c r="D314"/>
+      <c r="E314"/>
+      <c r="F314" t="s">
+        <v>197</v>
       </c>
       <c r="K314" s="3">
         <v>2604</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F315" s="1" t="s">
-        <v>13</v>
+      <c r="A315" t="s">
+        <v>17</v>
+      </c>
+      <c r="B315" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315" t="s">
+        <v>196</v>
+      </c>
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315" t="s">
+        <v>197</v>
       </c>
       <c r="K315" s="3">
         <v>2605</v>
@@ -4618,40 +7408,95 @@
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F318" s="1" t="s">
-        <v>13</v>
+      <c r="A318" t="s">
+        <v>17</v>
+      </c>
+      <c r="B318" t="s">
+        <v>18</v>
+      </c>
+      <c r="C318" t="s">
+        <v>196</v>
+      </c>
+      <c r="D318"/>
+      <c r="E318"/>
+      <c r="F318" t="s">
+        <v>197</v>
       </c>
       <c r="K318" s="3">
         <v>2701</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F319" s="1" t="s">
-        <v>13</v>
+      <c r="A319" t="s">
+        <v>17</v>
+      </c>
+      <c r="B319" t="s">
+        <v>18</v>
+      </c>
+      <c r="C319" t="s">
+        <v>196</v>
+      </c>
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319" t="s">
+        <v>197</v>
       </c>
       <c r="K319" s="3">
         <v>2702</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F320" s="1" t="s">
-        <v>13</v>
+      <c r="A320" t="s">
+        <v>17</v>
+      </c>
+      <c r="B320" t="s">
+        <v>18</v>
+      </c>
+      <c r="C320" t="s">
+        <v>196</v>
+      </c>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320" t="s">
+        <v>197</v>
       </c>
       <c r="K320" s="3">
         <v>2703</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F321" s="1" t="s">
-        <v>13</v>
+      <c r="A321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B321" t="s">
+        <v>18</v>
+      </c>
+      <c r="C321" t="s">
+        <v>196</v>
+      </c>
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321" t="s">
+        <v>197</v>
       </c>
       <c r="K321" s="3">
         <v>2704</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F322" s="1" t="s">
-        <v>13</v>
+      <c r="A322" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" t="s">
+        <v>18</v>
+      </c>
+      <c r="C322" t="s">
+        <v>196</v>
+      </c>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322" t="s">
+        <v>197</v>
       </c>
       <c r="K322" s="3">
         <v>2705</v>
@@ -4689,16 +7534,22 @@
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="F325" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K325" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F326" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K326" s="1" t="s">
         <v>194</v>
